--- a/manual_contacts.xlsx
+++ b/manual_contacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalfi\Documents\repositories\roundtable\TablerWorldYearbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C3997-AE52-43D6-8DA8-B1465AB58CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4B7CD-DA86-4122-BE54-5FF5F5D70B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294940080" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>rt_club_number</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Giacomo</t>
   </si>
   <si>
-    <t>Giannoni</t>
-  </si>
-  <si>
-    <t>Mirko</t>
-  </si>
-  <si>
     <t>Bartali</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
   </si>
   <si>
     <t>CataldoPennino</t>
-  </si>
-  <si>
-    <t>MirkoGiannoni</t>
   </si>
   <si>
     <t>is_manual_contact</t>
@@ -415,8 +406,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F54CC92B-A3E6-48C2-B344-FB968A74CECC}" name="manual_contacts" displayName="manual_contacts" ref="A1:G30" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{F54CC92B-A3E6-48C2-B344-FB968A74CECC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F54CC92B-A3E6-48C2-B344-FB968A74CECC}" name="manual_contacts" displayName="manual_contacts" ref="A1:G29" totalsRowShown="0">
+  <autoFilter ref="A1:G29" xr:uid="{F54CC92B-A3E6-48C2-B344-FB968A74CECC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+    <sortCondition ref="B1:B29"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D77AC178-2031-4576-96FB-6EF26AD29E3B}" name="uname"/>
     <tableColumn id="2" xr3:uid="{8A52DF38-5CC7-4643-94E9-61BA5E17803F}" name="rt_club_number"/>
@@ -693,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -731,12 +725,12 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -759,7 +753,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -782,7 +776,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -805,7 +799,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -851,7 +845,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -897,7 +891,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -920,7 +914,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -943,7 +937,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -966,22 +960,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -989,16 +983,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1012,16 +1006,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1035,22 +1029,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1058,16 +1052,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1081,16 +1075,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1104,16 +1098,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1127,16 +1121,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1150,22 +1144,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1173,16 +1167,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1196,16 +1190,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1219,16 +1213,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1242,16 +1236,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1265,7 +1259,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>57</v>
@@ -1274,7 +1268,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1288,7 +1282,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>61</v>
@@ -1297,7 +1291,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1311,16 +1305,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1334,22 +1328,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1357,52 +1351,29 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B29">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:G30">
+  <conditionalFormatting sqref="E2:G29">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -1410,23 +1381,23 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G28">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="F26:G27">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
+  <conditionalFormatting sqref="G28:G29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
